--- a/analyses/T7-incubations/unipept/GO/organizing/MS_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/MS_GO.xlsx
@@ -7715,7 +7715,7 @@
   <dimension ref="A1:L328"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18115,7 +18115,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
